--- a/data/trans_orig/P14C24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6160EA3C-0371-432F-A659-1F17EA096987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4502B9ED-EC22-45A7-8FDC-322A74086587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53DF3D9F-B591-4080-98C3-CFE63C9E2D5D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27FC4A5D-D118-42D7-8730-2B9ED910CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
   <si>
     <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>21,19%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>74,97%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,19 +104,13 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>18,28%</t>
@@ -125,7 +119,7 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>37,92%</t>
+    <t>39,77%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +134,13 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>22,12%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>17,36%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,139 +152,142 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -299,49 +296,49 @@
     <t>66,28%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>55,31%</t>
+    <t>54,72%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>44,69%</t>
+    <t>45,28%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -359,19 +356,16 @@
     <t>83,57%</t>
   </si>
   <si>
-    <t>33,67%</t>
+    <t>33,11%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>79,87%</t>
-  </si>
-  <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>75,17%</t>
+    <t>76,57%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -386,19 +380,19 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>66,33%</t>
+    <t>66,89%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>20,13%</t>
+    <t>23,98%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>24,83%</t>
+    <t>23,43%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -407,40 +401,34 @@
     <t>76,53%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
     <t>53,69%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>31,47%</t>
@@ -449,16 +437,16 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>55,98%</t>
+    <t>57,33%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -467,76 +455,76 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>69,67%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>68,68%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>52,09%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>71,06%</t>
+    <t>70,02%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -545,154 +533,154 @@
     <t>80,5%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1107,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C695F855-7126-4973-82E6-AF19DA95E845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF62CDB-0EB8-4A0B-A61A-A36C9DAD7D04}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1297,13 +1285,13 @@
         <v>5252</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1312,19 +1300,19 @@
         <v>6183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1333,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1348,13 +1336,13 @@
         <v>1927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1363,13 +1351,13 @@
         <v>1927</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,13 +1372,13 @@
         <v>5139</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1399,13 +1387,13 @@
         <v>28682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -1414,18 +1402,18 @@
         <v>33821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1437,13 +1425,13 @@
         <v>4203</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -1452,13 +1440,13 @@
         <v>13183</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1467,13 +1455,13 @@
         <v>17386</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1476,13 @@
         <v>5251</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -1503,13 +1491,13 @@
         <v>18694</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -1518,19 +1506,19 @@
         <v>23944</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1539,13 +1527,13 @@
         <v>1038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1554,13 +1542,13 @@
         <v>3044</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1569,13 +1557,13 @@
         <v>4082</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,13 +1578,13 @@
         <v>10492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1605,13 +1593,13 @@
         <v>34921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -1620,18 +1608,18 @@
         <v>45412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1643,10 +1631,10 @@
         <v>996</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1658,13 +1646,13 @@
         <v>9448</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1673,13 +1661,13 @@
         <v>10444</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,10 +1682,10 @@
         <v>969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1709,13 +1697,13 @@
         <v>1779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1724,19 +1712,19 @@
         <v>2748</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1745,10 +1733,10 @@
         <v>935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -1760,13 +1748,13 @@
         <v>2986</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1775,13 +1763,13 @@
         <v>3921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1784,13 @@
         <v>2900</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1811,13 +1799,13 @@
         <v>14213</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -1826,18 +1814,18 @@
         <v>17113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1849,13 +1837,13 @@
         <v>5504</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1864,10 +1852,10 @@
         <v>11553</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1879,13 +1867,13 @@
         <v>17057</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1888,13 @@
         <v>2800</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1915,13 +1903,13 @@
         <v>1979</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1930,19 +1918,19 @@
         <v>4779</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1951,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1966,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1981,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +1990,13 @@
         <v>8304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2017,13 +2005,13 @@
         <v>13532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -2032,18 +2020,18 @@
         <v>21836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2055,10 +2043,10 @@
         <v>4867</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -2070,10 +2058,10 @@
         <v>17725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -2085,10 +2073,10 @@
         <v>22592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2106,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2121,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2136,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2157,13 +2145,13 @@
         <v>957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2172,13 +2160,13 @@
         <v>868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2187,13 +2175,13 @@
         <v>1825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2196,13 @@
         <v>5824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2223,13 +2211,13 @@
         <v>18593</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2238,18 +2226,18 @@
         <v>24417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2261,10 +2249,10 @@
         <v>3165</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2276,13 +2264,13 @@
         <v>8039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2291,13 +2279,13 @@
         <v>11204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2300,13 @@
         <v>971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2327,13 +2315,13 @@
         <v>5043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2342,19 +2330,19 @@
         <v>6014</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2363,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2378,13 +2366,13 @@
         <v>1890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2393,13 +2381,13 @@
         <v>1890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2402,13 @@
         <v>4136</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -2429,13 +2417,13 @@
         <v>14972</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2444,18 +2432,18 @@
         <v>19108</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2467,13 +2455,13 @@
         <v>892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -2482,13 +2470,13 @@
         <v>30900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2497,13 +2485,13 @@
         <v>31792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2506,13 @@
         <v>3236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2533,13 +2521,13 @@
         <v>10367</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2548,19 +2536,19 @@
         <v>13602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2569,13 +2557,13 @@
         <v>2084</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2584,13 +2572,13 @@
         <v>3724</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2599,13 +2587,13 @@
         <v>5809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2608,13 @@
         <v>6212</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -2635,13 +2623,13 @@
         <v>44991</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -2650,18 +2638,18 @@
         <v>51203</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2673,13 +2661,13 @@
         <v>15703</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -2688,13 +2676,13 @@
         <v>38077</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -2703,13 +2691,13 @@
         <v>53778</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2712,13 @@
         <v>3803</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -2739,13 +2727,13 @@
         <v>14992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -2754,19 +2742,19 @@
         <v>18795</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2775,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2790,13 +2778,13 @@
         <v>5208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -2805,13 +2793,13 @@
         <v>5207</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2814,13 @@
         <v>19506</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -2841,13 +2829,13 @@
         <v>58276</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -2856,13 +2844,13 @@
         <v>77781</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2867,13 @@
         <v>39540</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -2894,13 +2882,13 @@
         <v>150426</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -2909,13 +2897,13 @@
         <v>189966</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2918,13 @@
         <v>17960</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -2945,13 +2933,13 @@
         <v>58106</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>72</v>
@@ -2960,19 +2948,19 @@
         <v>76066</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -2981,13 +2969,13 @@
         <v>5014</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -2996,13 +2984,13 @@
         <v>19647</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -3011,13 +2999,13 @@
         <v>24661</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3020,13 @@
         <v>62513</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>210</v>
@@ -3047,13 +3035,13 @@
         <v>228179</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>270</v>
@@ -3062,18 +3050,18 @@
         <v>290692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4502B9ED-EC22-45A7-8FDC-322A74086587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D977DB8-477D-4C48-A4A5-3720197A2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27FC4A5D-D118-42D7-8730-2B9ED910CE04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C70CAD62-AE29-44DB-9834-13EC20CF56C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2016 (Tasa respuesta: 4,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,52 +74,58 @@
     <t>81,9%</t>
   </si>
   <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>73,54%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +140,13 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>22,2%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>19,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,70 +158,70 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>53,53%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>49,41%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>8,99%</t>
@@ -224,7 +230,7 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>20,54%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -236,16 +242,16 @@
     <t>66,47%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>61,03%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>36,31%</t>
   </si>
   <si>
     <t>83,87%</t>
@@ -257,16 +263,16 @@
     <t>12,52%</t>
   </si>
   <si>
-    <t>39,37%</t>
+    <t>39,79%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>32,23%</t>
@@ -275,19 +281,19 @@
     <t>21,01%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -296,49 +302,49 @@
     <t>66,28%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>54,72%</t>
+    <t>61,27%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>45,28%</t>
+    <t>38,73%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -356,16 +362,19 @@
     <t>83,57%</t>
   </si>
   <si>
-    <t>33,11%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
+    <t>75,75%</t>
+  </si>
+  <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>76,57%</t>
+    <t>77,61%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -380,19 +389,19 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>66,89%</t>
+    <t>66,81%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>23,98%</t>
+    <t>24,25%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>22,39%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -404,19 +413,19 @@
     <t>53,69%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>23,47%</t>
@@ -425,28 +434,28 @@
     <t>33,69%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -455,76 +464,76 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>64,72%</t>
+    <t>62,06%</t>
   </si>
   <si>
     <t>68,68%</t>
   </si>
   <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>52,09%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>70,02%</t>
+    <t>83,55%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -533,154 +542,154 @@
     <t>80,5%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF62CDB-0EB8-4A0B-A61A-A36C9DAD7D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDD306C-925E-4720-9178-777D9C91EE57}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1273,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1285,13 +1294,13 @@
         <v>5252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1300,19 +1309,19 @@
         <v>6183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1321,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1336,13 +1345,13 @@
         <v>1927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1351,13 +1360,13 @@
         <v>1927</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1372,13 +1381,13 @@
         <v>5139</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1387,13 +1396,13 @@
         <v>28682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -1402,18 +1411,18 @@
         <v>33821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1425,13 +1434,13 @@
         <v>4203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -1440,13 +1449,13 @@
         <v>13183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1455,13 +1464,13 @@
         <v>17386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,13 +1485,13 @@
         <v>5251</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -1491,13 +1500,13 @@
         <v>18694</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -1506,19 +1515,19 @@
         <v>23944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1527,13 +1536,13 @@
         <v>1038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1542,13 +1551,13 @@
         <v>3044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1557,13 +1566,13 @@
         <v>4082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1587,13 @@
         <v>10492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1593,13 +1602,13 @@
         <v>34921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -1608,18 +1617,18 @@
         <v>45412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1631,10 +1640,10 @@
         <v>996</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1646,13 +1655,13 @@
         <v>9448</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1661,13 +1670,13 @@
         <v>10444</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,10 +1691,10 @@
         <v>969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1697,13 +1706,13 @@
         <v>1779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1712,19 +1721,19 @@
         <v>2748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1733,10 +1742,10 @@
         <v>935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -1748,13 +1757,13 @@
         <v>2986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1763,13 +1772,13 @@
         <v>3921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1793,13 @@
         <v>2900</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1799,13 +1808,13 @@
         <v>14213</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -1814,18 +1823,18 @@
         <v>17113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1837,13 +1846,13 @@
         <v>5504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1852,10 +1861,10 @@
         <v>11553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1867,13 +1876,13 @@
         <v>17057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1897,13 @@
         <v>2800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1903,13 +1912,13 @@
         <v>1979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1918,19 +1927,19 @@
         <v>4779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1939,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1954,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1969,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1999,13 @@
         <v>8304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2005,13 +2014,13 @@
         <v>13532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -2020,18 +2029,18 @@
         <v>21836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2043,10 +2052,10 @@
         <v>4867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -2058,10 +2067,10 @@
         <v>17725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -2073,10 +2082,10 @@
         <v>22592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2094,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2109,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2124,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2145,13 +2154,13 @@
         <v>957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2160,13 +2169,13 @@
         <v>868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2175,13 +2184,13 @@
         <v>1825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2205,13 @@
         <v>5824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2211,13 +2220,13 @@
         <v>18593</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2226,18 +2235,18 @@
         <v>24417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2249,10 +2258,10 @@
         <v>3165</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2264,13 +2273,13 @@
         <v>8039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2279,13 +2288,13 @@
         <v>11204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,10 +2309,10 @@
         <v>971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -2315,13 +2324,13 @@
         <v>5043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2330,19 +2339,19 @@
         <v>6014</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2351,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2366,13 +2375,13 @@
         <v>1890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2381,13 +2390,13 @@
         <v>1890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2411,13 @@
         <v>4136</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -2417,13 +2426,13 @@
         <v>14972</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -2432,18 +2441,18 @@
         <v>19108</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2455,13 +2464,13 @@
         <v>892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -2470,13 +2479,13 @@
         <v>30900</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2485,13 +2494,13 @@
         <v>31792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2515,13 @@
         <v>3236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2521,13 +2530,13 @@
         <v>10367</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2536,19 +2545,19 @@
         <v>13602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2557,13 +2566,13 @@
         <v>2084</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2572,13 +2581,13 @@
         <v>3724</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2587,13 +2596,13 @@
         <v>5809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2617,13 @@
         <v>6212</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -2623,13 +2632,13 @@
         <v>44991</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -2638,18 +2647,18 @@
         <v>51203</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2661,13 +2670,13 @@
         <v>15703</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -2676,13 +2685,13 @@
         <v>38077</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -2691,13 +2700,13 @@
         <v>53778</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2721,13 @@
         <v>3803</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -2727,13 +2736,13 @@
         <v>14992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -2742,19 +2751,19 @@
         <v>18795</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2763,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2778,13 +2787,13 @@
         <v>5208</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -2793,13 +2802,13 @@
         <v>5207</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2823,13 @@
         <v>19506</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -2829,13 +2838,13 @@
         <v>58276</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -2844,13 +2853,13 @@
         <v>77781</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2876,13 @@
         <v>39540</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -2882,13 +2891,13 @@
         <v>150426</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -2897,13 +2906,13 @@
         <v>189966</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2927,13 @@
         <v>17960</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -2933,13 +2942,13 @@
         <v>58106</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>72</v>
@@ -2948,19 +2957,19 @@
         <v>76066</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -2969,13 +2978,13 @@
         <v>5014</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -2984,13 +2993,13 @@
         <v>19647</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -2999,13 +3008,13 @@
         <v>24661</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3029,13 @@
         <v>62513</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>210</v>
@@ -3035,13 +3044,13 @@
         <v>228179</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>270</v>
@@ -3050,18 +3059,18 @@
         <v>290692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
